--- a/data/trans_dic/CoTrAQ_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CoTrAQ_R2-Estudios-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07505380484674284</v>
+        <v>0.0765837090494169</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2742121896597975</v>
+        <v>0.2773206407610251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1303198979264195</v>
+        <v>0.1360034225501939</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3018941969408339</v>
+        <v>0.2964850273961199</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1099354770325982</v>
+        <v>0.1144180490601955</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3048808039095289</v>
+        <v>0.3041367719023423</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1780348685575645</v>
+        <v>0.19151696453374</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4453840045062822</v>
+        <v>0.4347688110606622</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2797890530729585</v>
+        <v>0.2841574751026747</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5230337155048796</v>
+        <v>0.5289097824372009</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.199823628858293</v>
+        <v>0.1961890248435594</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4391178279684889</v>
+        <v>0.4396710819574727</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1307716634314291</v>
+        <v>0.1294894578014855</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2307011425941673</v>
+        <v>0.2301723190567919</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.150709341017385</v>
+        <v>0.1487773345707265</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2809858502049248</v>
+        <v>0.2814892437119746</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1463705672637992</v>
+        <v>0.1431414468933228</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2572834237254466</v>
+        <v>0.2596440308140163</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1793115908137066</v>
+        <v>0.1807258952248436</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2897667685949382</v>
+        <v>0.2887833682927263</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2195536467773176</v>
+        <v>0.2195970294136384</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.351542975211631</v>
+        <v>0.3533702367738846</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1856243298427943</v>
+        <v>0.1849617393957373</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3041457262910867</v>
+        <v>0.3058003962331171</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05213300017788772</v>
+        <v>0.04978571152209024</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1187139173080435</v>
+        <v>0.1159842775233494</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08571977731071283</v>
+        <v>0.086719088223916</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1626551283935394</v>
+        <v>0.1652500908611273</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07313203224767985</v>
+        <v>0.0745596748377617</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1490285945697992</v>
+        <v>0.1515484408370139</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1223782822336519</v>
+        <v>0.1177717002404996</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2133899984331213</v>
+        <v>0.2007510139778046</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1873477213553921</v>
+        <v>0.1842919995294248</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2597046051311933</v>
+        <v>0.2594835365066822</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1315704308325728</v>
+        <v>0.1351600292771828</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.210843195104643</v>
+        <v>0.2143398344264805</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1129038226647501</v>
+        <v>0.1145036336771614</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2170426304343734</v>
+        <v>0.2206443850515668</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1458121836195779</v>
+        <v>0.1443579796318962</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2648547583291896</v>
+        <v>0.2597238524237369</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1319616767481667</v>
+        <v>0.1330819821119638</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2445716983585706</v>
+        <v>0.2430999273278013</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1526907489721081</v>
+        <v>0.152478850679211</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2664144406369608</v>
+        <v>0.2674093174558486</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1999125155958644</v>
+        <v>0.1991052121637808</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3186968191357386</v>
+        <v>0.3183582059313204</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1625677437416075</v>
+        <v>0.1657890383033187</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2799739418510516</v>
+        <v>0.2792174326997353</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13242</v>
+        <v>13512</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>38746</v>
+        <v>39185</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16670</v>
+        <v>17397</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20869</v>
+        <v>20495</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>33459</v>
+        <v>34823</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>64155</v>
+        <v>63999</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31411</v>
+        <v>33790</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>62932</v>
+        <v>61432</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>35790</v>
+        <v>36349</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36156</v>
+        <v>36562</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>60816</v>
+        <v>59710</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>92402</v>
+        <v>92519</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>115894</v>
+        <v>114758</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>212984</v>
+        <v>212495</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>82429</v>
+        <v>81372</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>182793</v>
+        <v>183121</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>209774</v>
+        <v>205146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>404899</v>
+        <v>408613</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>158912</v>
+        <v>160166</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>267513</v>
+        <v>266605</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>120082</v>
+        <v>120106</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>228694</v>
+        <v>229883</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>266032</v>
+        <v>265082</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>478648</v>
+        <v>481252</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16175</v>
+        <v>15447</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>41364</v>
+        <v>40413</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19366</v>
+        <v>19592</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>50171</v>
+        <v>50972</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>39212</v>
+        <v>39978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>97896</v>
+        <v>99551</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37969</v>
+        <v>36540</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>74353</v>
+        <v>69949</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>42326</v>
+        <v>41636</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>80107</v>
+        <v>80038</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>70546</v>
+        <v>72471</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>138501</v>
+        <v>140798</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>155009</v>
+        <v>157205</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>306668</v>
+        <v>311757</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>131344</v>
+        <v>130034</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>272304</v>
+        <v>267029</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>300042</v>
+        <v>302589</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>597015</v>
+        <v>593422</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>209634</v>
+        <v>209343</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>376427</v>
+        <v>377833</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>180077</v>
+        <v>179349</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>327660</v>
+        <v>327312</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>369631</v>
+        <v>376956</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>683434</v>
+        <v>681587</v>
       </c>
     </row>
     <row r="20">
